--- a/backend/web/samples/Universities.xlsx
+++ b/backend/web/samples/Universities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23017"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23028"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{903164C0-F930-46C7-B77E-FFF015EC7799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6C7DC32-E1F4-43F7-90DF-718FD113A121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>University Name</t>
   </si>
@@ -69,6 +69,12 @@
     <t>Next To</t>
   </si>
   <si>
+    <t>Status Active</t>
+  </si>
+  <si>
+    <t>Recommended</t>
+  </si>
+  <si>
     <t>University one</t>
   </si>
   <si>
@@ -99,6 +105,9 @@
     <t>test aa</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>University two</t>
   </si>
   <si>
@@ -121,6 +130,9 @@
   </si>
   <si>
     <t>EGP</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -499,7 +511,7 @@
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -555,35 +567,41 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:1024">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2">
         <v>38.268238310000001</v>
@@ -592,39 +610,45 @@
         <v>-104.6109419</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1024">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J3">
         <v>38.268238310000001</v>
@@ -633,10 +657,16 @@
         <v>-104.6109419</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
